--- a/biology/Médecine/Adolphe_Javal/Adolphe_Javal.xlsx
+++ b/biology/Médecine/Adolphe_Javal/Adolphe_Javal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Adolphe Javal est un médecin et écrivain français né le 11 juin 1873 dans le 16e arrondissement de Paris[1] et mort en déportation en mai 1944 à Auschwitz.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Adolphe Javal est un médecin et écrivain français né le 11 juin 1873 dans le 16e arrondissement de Paris et mort en déportation en mai 1944 à Auschwitz.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Professeur de médecine, spécialiste de biochimie, Adolphe Javal est le fils du docteur Émile Javal (1839-1907), membre de l’Académie de médecine, député de l'Yonne et de Maria-Anna Elissen (1847-1933). En 1904, il obtient le prix Desportes (thérapeutique médicale). Passionné d’agriculture, il réside la plupart du temps dans la propriété familiale de Vauluisant (Yonne) et publiera La Confession d’un agriculteur (1929).
 Ambitionnant de prolonger la carrière politique de son père et de son grand-père, il se présenta plusieurs fois aux élections sénatoriales dans l’Yonne, sans succès.
